--- a/NextLoad/Files/nota_entrega.xlsx
+++ b/NextLoad/Files/nota_entrega.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\ac\developer\c#\NextLoad\NextLoad\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -56,9 +56,6 @@
     <t>Tasa</t>
   </si>
   <si>
-    <t>US$</t>
-  </si>
-  <si>
     <t>CCS</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>20240623035</t>
+  </si>
+  <si>
+    <t>USD</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -506,10 +506,10 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>5</v>
@@ -520,14 +520,14 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
@@ -535,7 +535,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G2" s="4">
         <v>40</v>
@@ -547,7 +547,7 @@
         <v>640</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" s="5">
         <v>1</v>
@@ -555,14 +555,14 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
@@ -570,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G3" s="4">
         <v>40</v>
@@ -582,7 +582,7 @@
         <v>640</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" s="5">
         <v>2</v>
@@ -590,14 +590,14 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
@@ -605,7 +605,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G4" s="4">
         <v>40</v>
@@ -617,7 +617,7 @@
         <v>640</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" s="5">
         <v>1</v>
@@ -625,14 +625,14 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
@@ -640,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G5" s="4">
         <v>40</v>
@@ -652,7 +652,7 @@
         <v>640</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" s="5">
         <v>2</v>
@@ -660,13 +660,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -675,7 +675,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G6" s="4">
         <v>40</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6" s="5">
         <v>1</v>
@@ -695,13 +695,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -710,7 +710,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G7" s="4">
         <v>40</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="5">
         <v>2</v>
@@ -730,13 +730,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -745,7 +745,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G8" s="4">
         <v>40</v>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="5">
         <v>1</v>
@@ -765,13 +765,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -780,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G9" s="4">
         <v>40</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" s="5">
         <v>2</v>
@@ -800,13 +800,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -815,7 +815,7 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G10" s="4">
         <v>40</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10" s="5">
         <v>1</v>
@@ -835,13 +835,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -850,7 +850,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G11" s="4">
         <v>40</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11" s="5">
         <v>2</v>
@@ -870,14 +870,14 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
@@ -885,7 +885,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G12" s="4">
         <v>40</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12" s="5">
         <v>3</v>
@@ -905,14 +905,14 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G13" s="4">
         <v>40</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K13" s="5">
         <v>5</v>
@@ -940,14 +940,14 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
@@ -955,7 +955,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G14" s="4">
         <v>40</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K14" s="5">
         <v>2</v>
@@ -975,14 +975,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
@@ -990,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G15" s="4">
         <v>40</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K15" s="5">
         <v>1</v>
@@ -1010,13 +1010,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -1025,7 +1025,7 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G16" s="4">
         <v>40</v>
@@ -1037,7 +1037,7 @@
         <v>160</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K16" s="5">
         <v>4</v>
@@ -1045,13 +1045,13 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -1060,7 +1060,7 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G17" s="4">
         <v>40</v>
@@ -1072,7 +1072,7 @@
         <v>160</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K17" s="5">
         <v>2</v>
@@ -1080,13 +1080,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -1095,7 +1095,7 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G18" s="4">
         <v>40</v>
@@ -1107,7 +1107,7 @@
         <v>160</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K18" s="5">
         <v>3</v>
